--- a/output_data/report_penjualan_2019.xlsx
+++ b/output_data/report_penjualan_2019.xlsx
@@ -5,35 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://migo-my.sharepoint.com/personal/putu_migo_io/Documents/Desktop/Data Engineer Project/Bootcamp Digital Skola/project_1/automate_report/digitalskola/automate_report/output_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://migo-my.sharepoint.com/personal/putu_migo_io/Documents/Desktop/Data Engineer Project/Bootcamp Digital Skola/project_1/automate_report/digitalskola/report_putu/output_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_8BC4167A65D9491CB137EAF67718456BEAB089FA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4058AC5-BE55-4807-B3C6-C14A5D1A7801}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F2459CCDFD194D1F2FF660D5BF9847241A78078D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sales Report</t>
   </si>
@@ -42,6 +29,9 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Electronic accessories</t>
@@ -75,8 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;$&quot;_-;\-* #,##0.00\ &quot;$&quot;_-;_-* &quot;-&quot;??\ &quot;$&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -120,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -143,20 +134,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -219,7 +241,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$B$5</c:f>
+              <c:f>Report!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -235,37 +257,890 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Report!$A$6:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Report!$A$6:$B$183</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="178"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2019-01-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019-01-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2019-01-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2019-01-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2019-01-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2019-01-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2019-01-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2019-01-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2019-01-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2019-01-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2019-01-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2019-01-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2019-01-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2019-01-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2019-01-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2019-01-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2019-01-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2019-01-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2019-01-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2019-01-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2019-01-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2019-01-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2019-01-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2019-01-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2019-01-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2019-01-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2019-01-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2019-01-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2019-01-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2019-01-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2019-01-31 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2019-02-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2019-02-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2019-02-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2019-02-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2019-02-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2019-02-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2019-02-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2019-02-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2019-02-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2019-02-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2019-02-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>2019-02-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>2019-02-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>2019-02-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>2019-02-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>2019-02-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>2019-02-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>2019-02-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>2019-02-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>2019-02-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>2019-02-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2019-02-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>2019-02-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>2019-02-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>2019-02-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>2019-02-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>2019-02-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2019-02-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>2019-03-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2019-03-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>2019-03-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>2019-03-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>2019-03-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2019-03-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>2019-03-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>2019-03-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>2019-03-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>2019-03-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>2019-03-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>2019-03-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>2019-03-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2019-03-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2019-03-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>2019-03-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>2019-03-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>2019-03-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>2019-03-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>2019-03-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>2019-03-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>2019-03-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>2019-03-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>2019-03-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>2019-03-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>2019-03-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>2019-03-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>2019-03-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>2019-03-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>2019-03-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>2019-01-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>2019-01-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>2019-01-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>2019-01-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>2019-01-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>2019-01-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>2019-01-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2019-01-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>2019-01-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>2019-01-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>2019-01-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>2019-01-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>2019-01-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>2019-01-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>2019-01-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>2019-01-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>2019-01-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>2019-01-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>2019-01-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>2019-01-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>2019-01-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>2019-01-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>2019-01-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>2019-01-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>2019-01-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>2019-01-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>2019-01-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>2019-01-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>2019-01-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>2019-01-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>2019-01-31 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>2019-02-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>2019-02-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>2019-02-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>2019-02-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>2019-02-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>2019-02-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>2019-02-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>2019-02-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>2019-02-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>2019-02-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>2019-02-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>2019-02-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>2019-02-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>2019-02-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>2019-02-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>2019-02-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>2019-02-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>2019-02-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>2019-02-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>2019-02-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>2019-02-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>2019-02-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>2019-02-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>2019-02-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>2019-02-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>2019-02-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>2019-02-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>2019-02-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>2019-03-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>2019-03-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>2019-03-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>2019-03-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>2019-03-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>2019-03-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>2019-03-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>2019-03-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>2019-03-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>2019-03-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>2019-03-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>2019-03-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>2019-03-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>2019-03-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>2019-03-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>2019-03-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>2019-03-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>2019-03-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>2019-03-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>2019-03-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>2019-03-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>2019-03-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>2019-03-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>2019-03-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>2019-03-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>2019-03-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>2019-03-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>2019-03-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>2019-03-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>2019-03-30 00:00:00</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$B$6:$B$7</c:f>
+              <c:f>Report!$C$6:$C$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
-                  <c:v>27102</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27236</c:v>
+                  <c:v>1383</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>690</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1282</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1558</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>658</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2186</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1261</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1602</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>682</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CFC7-4F5C-8CAA-5233A5C3BEF9}"/>
+              <c16:uniqueId val="{00000000-B0A2-4958-A6A0-D1ADABEB1D39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -274,7 +1149,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$C$5</c:f>
+              <c:f>Report!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -290,37 +1165,905 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Report!$A$6:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Report!$A$6:$B$183</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="178"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2019-01-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019-01-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2019-01-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2019-01-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2019-01-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2019-01-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2019-01-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2019-01-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2019-01-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2019-01-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2019-01-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2019-01-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2019-01-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2019-01-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2019-01-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2019-01-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2019-01-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2019-01-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2019-01-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2019-01-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2019-01-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2019-01-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2019-01-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2019-01-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2019-01-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2019-01-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2019-01-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2019-01-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2019-01-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2019-01-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2019-01-31 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2019-02-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2019-02-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2019-02-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2019-02-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2019-02-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2019-02-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2019-02-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2019-02-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2019-02-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2019-02-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2019-02-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>2019-02-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>2019-02-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>2019-02-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>2019-02-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>2019-02-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>2019-02-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>2019-02-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>2019-02-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>2019-02-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>2019-02-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2019-02-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>2019-02-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>2019-02-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>2019-02-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>2019-02-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>2019-02-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2019-02-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>2019-03-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2019-03-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>2019-03-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>2019-03-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>2019-03-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2019-03-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>2019-03-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>2019-03-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>2019-03-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>2019-03-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>2019-03-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>2019-03-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>2019-03-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2019-03-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2019-03-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>2019-03-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>2019-03-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>2019-03-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>2019-03-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>2019-03-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>2019-03-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>2019-03-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>2019-03-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>2019-03-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>2019-03-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>2019-03-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>2019-03-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>2019-03-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>2019-03-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>2019-03-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>2019-01-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>2019-01-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>2019-01-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>2019-01-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>2019-01-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>2019-01-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>2019-01-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2019-01-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>2019-01-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>2019-01-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>2019-01-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>2019-01-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>2019-01-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>2019-01-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>2019-01-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>2019-01-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>2019-01-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>2019-01-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>2019-01-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>2019-01-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>2019-01-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>2019-01-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>2019-01-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>2019-01-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>2019-01-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>2019-01-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>2019-01-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>2019-01-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>2019-01-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>2019-01-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>2019-01-31 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>2019-02-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>2019-02-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>2019-02-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>2019-02-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>2019-02-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>2019-02-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>2019-02-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>2019-02-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>2019-02-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>2019-02-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>2019-02-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>2019-02-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>2019-02-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>2019-02-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>2019-02-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>2019-02-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>2019-02-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>2019-02-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>2019-02-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>2019-02-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>2019-02-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>2019-02-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>2019-02-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>2019-02-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>2019-02-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>2019-02-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>2019-02-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>2019-02-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>2019-03-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>2019-03-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>2019-03-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>2019-03-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>2019-03-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>2019-03-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>2019-03-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>2019-03-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>2019-03-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>2019-03-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>2019-03-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>2019-03-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>2019-03-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>2019-03-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>2019-03-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>2019-03-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>2019-03-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>2019-03-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>2019-03-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>2019-03-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>2019-03-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>2019-03-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>2019-03-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>2019-03-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>2019-03-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>2019-03-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>2019-03-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>2019-03-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>2019-03-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>2019-03-30 00:00:00</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$C$6:$C$7</c:f>
+              <c:f>Report!$D$6:$D$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
-                  <c:v>30437</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23868</c:v>
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>910</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1021</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1064</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>944</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1292</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>496</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>884</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>698</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1095</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>852</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>719</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>936</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>989</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CFC7-4F5C-8CAA-5233A5C3BEF9}"/>
+              <c16:uniqueId val="{00000001-B0A2-4958-A6A0-D1ADABEB1D39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -329,7 +2072,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$D$5</c:f>
+              <c:f>Report!$E$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -345,37 +2088,914 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Report!$A$6:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Report!$A$6:$B$183</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="178"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2019-01-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019-01-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2019-01-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2019-01-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2019-01-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2019-01-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2019-01-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2019-01-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2019-01-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2019-01-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2019-01-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2019-01-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2019-01-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2019-01-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2019-01-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2019-01-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2019-01-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2019-01-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2019-01-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2019-01-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2019-01-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2019-01-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2019-01-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2019-01-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2019-01-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2019-01-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2019-01-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2019-01-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2019-01-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2019-01-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2019-01-31 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2019-02-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2019-02-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2019-02-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2019-02-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2019-02-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2019-02-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2019-02-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2019-02-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2019-02-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2019-02-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2019-02-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>2019-02-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>2019-02-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>2019-02-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>2019-02-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>2019-02-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>2019-02-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>2019-02-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>2019-02-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>2019-02-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>2019-02-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2019-02-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>2019-02-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>2019-02-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>2019-02-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>2019-02-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>2019-02-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2019-02-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>2019-03-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2019-03-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>2019-03-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>2019-03-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>2019-03-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2019-03-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>2019-03-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>2019-03-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>2019-03-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>2019-03-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>2019-03-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>2019-03-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>2019-03-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2019-03-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2019-03-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>2019-03-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>2019-03-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>2019-03-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>2019-03-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>2019-03-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>2019-03-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>2019-03-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>2019-03-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>2019-03-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>2019-03-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>2019-03-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>2019-03-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>2019-03-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>2019-03-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>2019-03-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>2019-01-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>2019-01-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>2019-01-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>2019-01-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>2019-01-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>2019-01-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>2019-01-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2019-01-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>2019-01-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>2019-01-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>2019-01-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>2019-01-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>2019-01-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>2019-01-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>2019-01-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>2019-01-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>2019-01-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>2019-01-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>2019-01-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>2019-01-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>2019-01-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>2019-01-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>2019-01-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>2019-01-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>2019-01-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>2019-01-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>2019-01-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>2019-01-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>2019-01-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>2019-01-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>2019-01-31 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>2019-02-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>2019-02-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>2019-02-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>2019-02-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>2019-02-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>2019-02-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>2019-02-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>2019-02-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>2019-02-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>2019-02-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>2019-02-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>2019-02-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>2019-02-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>2019-02-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>2019-02-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>2019-02-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>2019-02-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>2019-02-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>2019-02-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>2019-02-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>2019-02-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>2019-02-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>2019-02-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>2019-02-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>2019-02-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>2019-02-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>2019-02-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>2019-02-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>2019-03-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>2019-03-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>2019-03-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>2019-03-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>2019-03-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>2019-03-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>2019-03-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>2019-03-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>2019-03-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>2019-03-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>2019-03-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>2019-03-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>2019-03-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>2019-03-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>2019-03-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>2019-03-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>2019-03-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>2019-03-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>2019-03-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>2019-03-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>2019-03-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>2019-03-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>2019-03-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>2019-03-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>2019-03-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>2019-03-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>2019-03-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>2019-03-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>2019-03-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>2019-03-30 00:00:00</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$D$6:$D$7</c:f>
+              <c:f>Report!$E$6:$E$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
-                  <c:v>33171</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22974</c:v>
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>853</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>811</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>915</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1143</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1164</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1106</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>937</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1339</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CFC7-4F5C-8CAA-5233A5C3BEF9}"/>
+              <c16:uniqueId val="{00000002-B0A2-4958-A6A0-D1ADABEB1D39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -384,7 +3004,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$E$5</c:f>
+              <c:f>Report!$F$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -400,37 +3020,845 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Report!$A$6:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Report!$A$6:$B$183</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="178"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2019-01-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019-01-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2019-01-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2019-01-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2019-01-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2019-01-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2019-01-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2019-01-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2019-01-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2019-01-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2019-01-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2019-01-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2019-01-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2019-01-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2019-01-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2019-01-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2019-01-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2019-01-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2019-01-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2019-01-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2019-01-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2019-01-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2019-01-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2019-01-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2019-01-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2019-01-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2019-01-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2019-01-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2019-01-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2019-01-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2019-01-31 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2019-02-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2019-02-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2019-02-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2019-02-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2019-02-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2019-02-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2019-02-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2019-02-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2019-02-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2019-02-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2019-02-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>2019-02-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>2019-02-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>2019-02-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>2019-02-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>2019-02-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>2019-02-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>2019-02-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>2019-02-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>2019-02-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>2019-02-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2019-02-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>2019-02-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>2019-02-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>2019-02-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>2019-02-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>2019-02-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2019-02-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>2019-03-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2019-03-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>2019-03-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>2019-03-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>2019-03-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2019-03-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>2019-03-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>2019-03-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>2019-03-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>2019-03-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>2019-03-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>2019-03-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>2019-03-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2019-03-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2019-03-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>2019-03-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>2019-03-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>2019-03-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>2019-03-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>2019-03-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>2019-03-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>2019-03-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>2019-03-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>2019-03-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>2019-03-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>2019-03-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>2019-03-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>2019-03-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>2019-03-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>2019-03-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>2019-01-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>2019-01-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>2019-01-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>2019-01-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>2019-01-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>2019-01-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>2019-01-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2019-01-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>2019-01-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>2019-01-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>2019-01-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>2019-01-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>2019-01-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>2019-01-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>2019-01-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>2019-01-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>2019-01-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>2019-01-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>2019-01-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>2019-01-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>2019-01-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>2019-01-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>2019-01-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>2019-01-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>2019-01-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>2019-01-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>2019-01-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>2019-01-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>2019-01-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>2019-01-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>2019-01-31 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>2019-02-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>2019-02-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>2019-02-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>2019-02-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>2019-02-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>2019-02-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>2019-02-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>2019-02-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>2019-02-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>2019-02-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>2019-02-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>2019-02-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>2019-02-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>2019-02-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>2019-02-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>2019-02-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>2019-02-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>2019-02-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>2019-02-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>2019-02-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>2019-02-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>2019-02-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>2019-02-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>2019-02-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>2019-02-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>2019-02-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>2019-02-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>2019-02-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>2019-03-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>2019-03-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>2019-03-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>2019-03-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>2019-03-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>2019-03-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>2019-03-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>2019-03-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>2019-03-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>2019-03-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>2019-03-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>2019-03-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>2019-03-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>2019-03-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>2019-03-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>2019-03-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>2019-03-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>2019-03-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>2019-03-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>2019-03-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>2019-03-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>2019-03-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>2019-03-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>2019-03-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>2019-03-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>2019-03-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>2019-03-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>2019-03-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>2019-03-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>2019-03-30 00:00:00</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$E$6:$E$7</c:f>
+              <c:f>Report!$F$6:$F$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>18561</c:v>
-                </c:pt>
+                <c:ptCount val="178"/>
                 <c:pt idx="1">
-                  <c:v>30633</c:v>
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1129</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>628</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1258</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>725</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>581</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1295</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>979</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1554</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CFC7-4F5C-8CAA-5233A5C3BEF9}"/>
+              <c16:uniqueId val="{00000003-B0A2-4958-A6A0-D1ADABEB1D39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -439,7 +3867,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$F$5</c:f>
+              <c:f>Report!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -455,37 +3883,896 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Report!$A$6:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Report!$A$6:$B$183</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="178"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2019-01-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019-01-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2019-01-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2019-01-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2019-01-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2019-01-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2019-01-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2019-01-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2019-01-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2019-01-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2019-01-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2019-01-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2019-01-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2019-01-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2019-01-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2019-01-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2019-01-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2019-01-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2019-01-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2019-01-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2019-01-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2019-01-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2019-01-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2019-01-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2019-01-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2019-01-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2019-01-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2019-01-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2019-01-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2019-01-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2019-01-31 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2019-02-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2019-02-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2019-02-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2019-02-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2019-02-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2019-02-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2019-02-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2019-02-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2019-02-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2019-02-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2019-02-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>2019-02-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>2019-02-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>2019-02-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>2019-02-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>2019-02-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>2019-02-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>2019-02-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>2019-02-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>2019-02-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>2019-02-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2019-02-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>2019-02-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>2019-02-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>2019-02-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>2019-02-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>2019-02-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2019-02-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>2019-03-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2019-03-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>2019-03-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>2019-03-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>2019-03-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2019-03-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>2019-03-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>2019-03-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>2019-03-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>2019-03-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>2019-03-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>2019-03-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>2019-03-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2019-03-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2019-03-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>2019-03-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>2019-03-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>2019-03-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>2019-03-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>2019-03-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>2019-03-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>2019-03-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>2019-03-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>2019-03-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>2019-03-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>2019-03-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>2019-03-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>2019-03-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>2019-03-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>2019-03-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>2019-01-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>2019-01-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>2019-01-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>2019-01-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>2019-01-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>2019-01-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>2019-01-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2019-01-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>2019-01-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>2019-01-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>2019-01-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>2019-01-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>2019-01-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>2019-01-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>2019-01-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>2019-01-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>2019-01-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>2019-01-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>2019-01-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>2019-01-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>2019-01-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>2019-01-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>2019-01-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>2019-01-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>2019-01-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>2019-01-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>2019-01-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>2019-01-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>2019-01-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>2019-01-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>2019-01-31 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>2019-02-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>2019-02-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>2019-02-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>2019-02-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>2019-02-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>2019-02-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>2019-02-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>2019-02-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>2019-02-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>2019-02-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>2019-02-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>2019-02-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>2019-02-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>2019-02-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>2019-02-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>2019-02-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>2019-02-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>2019-02-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>2019-02-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>2019-02-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>2019-02-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>2019-02-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>2019-02-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>2019-02-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>2019-02-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>2019-02-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>2019-02-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>2019-02-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>2019-03-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>2019-03-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>2019-03-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>2019-03-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>2019-03-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>2019-03-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>2019-03-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>2019-03-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>2019-03-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>2019-03-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>2019-03-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>2019-03-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>2019-03-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>2019-03-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>2019-03-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>2019-03-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>2019-03-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>2019-03-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>2019-03-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>2019-03-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>2019-03-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>2019-03-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>2019-03-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>2019-03-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>2019-03-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>2019-03-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>2019-03-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>2019-03-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>2019-03-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>2019-03-30 00:00:00</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$F$6:$F$7</c:f>
+              <c:f>Report!$G$6:$G$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>30037</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23825</c:v>
+                <c:ptCount val="178"/>
+                <c:pt idx="2">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1509</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>718</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>697</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1163</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1671</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1009</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>655</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>906</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>746</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1373</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>985</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CFC7-4F5C-8CAA-5233A5C3BEF9}"/>
+              <c16:uniqueId val="{00000004-B0A2-4958-A6A0-D1ADABEB1D39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -494,7 +4781,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$G$5</c:f>
+              <c:f>Report!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,37 +4797,917 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Report!$A$6:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Report!$A$6:$B$183</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="178"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2019-01-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2019-01-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2019-01-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2019-01-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2019-01-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2019-01-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2019-01-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2019-01-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2019-01-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2019-01-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2019-01-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2019-01-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2019-01-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2019-01-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>2019-01-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>2019-01-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>2019-01-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>2019-01-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>2019-01-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2019-01-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>2019-01-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2019-01-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>2019-01-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>2019-01-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>2019-01-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>2019-01-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>2019-01-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2019-01-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>2019-01-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>2019-01-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>2019-01-31 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2019-02-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>2019-02-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>2019-02-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>2019-02-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2019-02-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2019-02-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>2019-02-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>2019-02-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>2019-02-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>2019-02-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>2019-02-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>2019-02-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>2019-02-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>2019-02-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>2019-02-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>2019-02-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>2019-02-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>2019-02-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>2019-02-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>2019-02-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>2019-02-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2019-02-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>2019-02-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>2019-02-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>2019-02-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>2019-02-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>2019-02-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2019-02-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>2019-03-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>2019-03-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>2019-03-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>2019-03-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>2019-03-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>2019-03-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>2019-03-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>2019-03-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>2019-03-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>2019-03-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>2019-03-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>2019-03-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>2019-03-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>2019-03-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>2019-03-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>2019-03-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>2019-03-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>2019-03-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>2019-03-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>2019-03-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>2019-03-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>2019-03-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>2019-03-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>2019-03-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>2019-03-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>2019-03-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>2019-03-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>2019-03-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>2019-03-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>2019-03-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>2019-01-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>2019-01-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>2019-01-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>2019-01-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>2019-01-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>2019-01-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>2019-01-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2019-01-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>2019-01-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>2019-01-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>2019-01-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>2019-01-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>2019-01-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>2019-01-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>2019-01-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>2019-01-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>2019-01-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>2019-01-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>2019-01-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>2019-01-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>2019-01-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>2019-01-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>2019-01-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>2019-01-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>2019-01-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>2019-01-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>2019-01-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>2019-01-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>2019-01-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>2019-01-30 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>2019-01-31 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>2019-02-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>2019-02-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>2019-02-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>2019-02-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>2019-02-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>2019-02-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>2019-02-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>2019-02-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>2019-02-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>2019-02-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>2019-02-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>2019-02-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>2019-02-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>2019-02-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>2019-02-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>2019-02-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>2019-02-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>2019-02-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>2019-02-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>2019-02-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>2019-02-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>2019-02-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>2019-02-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>2019-02-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>2019-02-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>2019-02-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>2019-02-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>2019-02-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>2019-03-01 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>2019-03-02 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>2019-03-03 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>2019-03-04 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>2019-03-05 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>2019-03-06 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>2019-03-07 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>2019-03-08 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>2019-03-09 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>2019-03-10 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>2019-03-11 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>2019-03-12 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>2019-03-13 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>2019-03-14 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>2019-03-15 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>2019-03-16 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>2019-03-17 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>2019-03-18 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>2019-03-19 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>2019-03-20 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>2019-03-21 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>2019-03-22 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>2019-03-23 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>2019-03-24 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>2019-03-25 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>2019-03-26 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>2019-03-27 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="175">
+                    <c:v>2019-03-28 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="176">
+                    <c:v>2019-03-29 00:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="177">
+                    <c:v>2019-03-30 00:00:00</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Female</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>Male</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Report!$G$6:$G$7</c:f>
+              <c:f>Report!$H$6:$H$183</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
-                  <c:v>28575</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26548</c:v>
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>943</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>742</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1630</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>610</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>723</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1143</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>892</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>545</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1329</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1076</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-CFC7-4F5C-8CAA-5233A5C3BEF9}"/>
+              <c16:uniqueId val="{00000005-B0A2-4958-A6A0-D1ADABEB1D39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -611,12 +5778,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:ext cx="28800000" cy="7200000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -928,34 +6095,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="25" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -977,83 +6135,3073 @@
       <c r="G5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
-        <v>27102</v>
-      </c>
-      <c r="C6" s="4">
-        <v>30437</v>
-      </c>
-      <c r="D6" s="4">
-        <v>33171</v>
-      </c>
-      <c r="E6" s="4">
-        <v>18561</v>
-      </c>
-      <c r="F6" s="4">
-        <v>30037</v>
-      </c>
-      <c r="G6" s="4">
-        <v>28575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
-        <v>27236</v>
-      </c>
-      <c r="C7" s="4">
-        <v>23868</v>
-      </c>
-      <c r="D7" s="4">
-        <v>22974</v>
-      </c>
-      <c r="E7" s="4">
-        <v>30633</v>
-      </c>
-      <c r="F7" s="4">
-        <v>23825</v>
-      </c>
-      <c r="G7" s="4">
-        <v>26548</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="B6" s="2">
+        <v>43466</v>
+      </c>
+      <c r="C6">
+        <v>1383</v>
+      </c>
+      <c r="D6">
+        <v>621</v>
+      </c>
+      <c r="E6">
+        <v>889</v>
+      </c>
+      <c r="H6">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2">
+        <v>43467</v>
+      </c>
+      <c r="F7">
+        <v>359</v>
+      </c>
+      <c r="H7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2">
+        <v>43468</v>
+      </c>
+      <c r="F8">
+        <v>262</v>
+      </c>
+      <c r="G8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2">
+        <v>43469</v>
+      </c>
+      <c r="C9">
+        <v>630</v>
+      </c>
+      <c r="D9">
+        <v>289</v>
+      </c>
+      <c r="G9">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2">
+        <v>43470</v>
+      </c>
+      <c r="C10">
+        <v>690</v>
+      </c>
+      <c r="D10">
+        <v>351</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="F10">
+        <v>1129</v>
+      </c>
+      <c r="G10">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2">
+        <v>43471</v>
+      </c>
+      <c r="D11">
+        <v>656</v>
+      </c>
+      <c r="E11">
+        <v>215</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2">
+        <v>43472</v>
+      </c>
+      <c r="D12">
+        <v>615</v>
+      </c>
+      <c r="E12">
+        <v>374</v>
+      </c>
+      <c r="G12">
+        <v>433</v>
+      </c>
+      <c r="H12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2">
+        <v>43473</v>
+      </c>
+      <c r="C13">
+        <v>462</v>
+      </c>
+      <c r="D13">
+        <v>681</v>
+      </c>
+      <c r="E13">
+        <v>2396</v>
+      </c>
+      <c r="G13">
+        <v>294</v>
+      </c>
+      <c r="H13">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="2">
+        <v>43474</v>
+      </c>
+      <c r="D14">
+        <v>311</v>
+      </c>
+      <c r="G14">
+        <v>235</v>
+      </c>
+      <c r="H14">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="2">
+        <v>43475</v>
+      </c>
+      <c r="C15">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>587</v>
+      </c>
+      <c r="F15">
+        <v>76</v>
+      </c>
+      <c r="H15">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="2">
+        <v>43476</v>
+      </c>
+      <c r="E16">
+        <v>270</v>
+      </c>
+      <c r="G16">
+        <v>608</v>
+      </c>
+      <c r="H16">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="7"/>
+      <c r="B17" s="2">
+        <v>43477</v>
+      </c>
+      <c r="D17">
+        <v>1372</v>
+      </c>
+      <c r="F17">
+        <v>149</v>
+      </c>
+      <c r="G17">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="7"/>
+      <c r="B18" s="2">
+        <v>43478</v>
+      </c>
+      <c r="C18">
+        <v>585</v>
+      </c>
+      <c r="D18">
+        <v>78</v>
+      </c>
+      <c r="E18">
+        <v>88</v>
+      </c>
+      <c r="F18">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="2">
+        <v>43479</v>
+      </c>
+      <c r="C19">
+        <v>424</v>
+      </c>
+      <c r="D19">
+        <v>584</v>
+      </c>
+      <c r="E19">
+        <v>523</v>
+      </c>
+      <c r="F19">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="2">
+        <v>43480</v>
+      </c>
+      <c r="C20">
+        <v>575</v>
+      </c>
+      <c r="D20">
+        <v>154</v>
+      </c>
+      <c r="G20">
+        <v>1937</v>
+      </c>
+      <c r="H20">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="2">
+        <v>43481</v>
+      </c>
+      <c r="E21">
+        <v>1378</v>
+      </c>
+      <c r="H21">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="7"/>
+      <c r="B22" s="2">
+        <v>43482</v>
+      </c>
+      <c r="E22">
+        <v>853</v>
+      </c>
+      <c r="F22">
+        <v>132</v>
+      </c>
+      <c r="G22">
+        <v>786</v>
+      </c>
+      <c r="H22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2">
+        <v>43483</v>
+      </c>
+      <c r="C23">
+        <v>138</v>
+      </c>
+      <c r="D23">
+        <v>388</v>
+      </c>
+      <c r="F23">
+        <v>41</v>
+      </c>
+      <c r="H23">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="2">
+        <v>43484</v>
+      </c>
+      <c r="C24">
+        <v>337</v>
+      </c>
+      <c r="D24">
+        <v>624</v>
+      </c>
+      <c r="E24">
+        <v>363</v>
+      </c>
+      <c r="G24">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="2">
+        <v>43485</v>
+      </c>
+      <c r="D25">
+        <v>537</v>
+      </c>
+      <c r="G25">
+        <v>1509</v>
+      </c>
+      <c r="H25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="2">
+        <v>43486</v>
+      </c>
+      <c r="E26">
+        <v>76</v>
+      </c>
+      <c r="F26">
+        <v>625</v>
+      </c>
+      <c r="G26">
+        <v>491</v>
+      </c>
+      <c r="H26">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="2">
+        <v>43487</v>
+      </c>
+      <c r="E27">
+        <v>152</v>
+      </c>
+      <c r="F27">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="2">
+        <v>43488</v>
+      </c>
+      <c r="C28">
+        <v>681</v>
+      </c>
+      <c r="D28">
+        <v>334</v>
+      </c>
+      <c r="E28">
+        <v>450</v>
+      </c>
+      <c r="F28">
+        <v>561</v>
+      </c>
+      <c r="G28">
+        <v>727</v>
+      </c>
+      <c r="H28">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="2">
+        <v>43489</v>
+      </c>
+      <c r="C29">
+        <v>408</v>
+      </c>
+      <c r="F29">
+        <v>407</v>
+      </c>
+      <c r="G29">
+        <v>64</v>
+      </c>
+      <c r="H29">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="2">
+        <v>43490</v>
+      </c>
+      <c r="D30">
+        <v>687</v>
+      </c>
+      <c r="E30">
+        <v>820</v>
+      </c>
+      <c r="H30">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="2">
+        <v>43491</v>
+      </c>
+      <c r="D31">
+        <v>844</v>
+      </c>
+      <c r="E31">
+        <v>470</v>
+      </c>
+      <c r="H31">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="2">
+        <v>43492</v>
+      </c>
+      <c r="C32">
+        <v>489</v>
+      </c>
+      <c r="D32">
+        <v>910</v>
+      </c>
+      <c r="E32">
+        <v>569</v>
+      </c>
+      <c r="G32">
+        <v>718</v>
+      </c>
+      <c r="H32">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="2">
+        <v>43493</v>
+      </c>
+      <c r="C33">
+        <v>225</v>
+      </c>
+      <c r="D33">
+        <v>125</v>
+      </c>
+      <c r="F33">
+        <v>702</v>
+      </c>
+      <c r="G33">
+        <v>293</v>
+      </c>
+      <c r="H33">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="2">
+        <v>43494</v>
+      </c>
+      <c r="E34">
+        <v>530</v>
+      </c>
+      <c r="G34">
+        <v>459</v>
+      </c>
+      <c r="H34">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="2">
+        <v>43495</v>
+      </c>
+      <c r="C35">
+        <v>456</v>
+      </c>
+      <c r="E35">
+        <v>1544</v>
+      </c>
+      <c r="G35">
+        <v>55</v>
+      </c>
+      <c r="H35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="2">
+        <v>43496</v>
+      </c>
+      <c r="C36">
+        <v>181</v>
+      </c>
+      <c r="D36">
+        <v>653</v>
+      </c>
+      <c r="H36">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="2">
+        <v>43497</v>
+      </c>
+      <c r="C37">
+        <v>218</v>
+      </c>
+      <c r="E37">
+        <v>626</v>
+      </c>
+      <c r="F37">
+        <v>326</v>
+      </c>
+      <c r="G37">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="2">
+        <v>43498</v>
+      </c>
+      <c r="C38">
+        <v>417</v>
+      </c>
+      <c r="D38">
+        <v>764</v>
+      </c>
+      <c r="E38">
+        <v>155</v>
+      </c>
+      <c r="F38">
+        <v>19</v>
+      </c>
+      <c r="H38">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="2">
+        <v>43499</v>
+      </c>
+      <c r="E39">
+        <v>143</v>
+      </c>
+      <c r="G39">
+        <v>697</v>
+      </c>
+      <c r="H39">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="2">
+        <v>43500</v>
+      </c>
+      <c r="C40">
+        <v>185</v>
+      </c>
+      <c r="D40">
+        <v>356</v>
+      </c>
+      <c r="E40">
+        <v>71</v>
+      </c>
+      <c r="F40">
+        <v>131</v>
+      </c>
+      <c r="G40">
+        <v>734</v>
+      </c>
+      <c r="H40">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="2">
+        <v>43501</v>
+      </c>
+      <c r="D41">
+        <v>32</v>
+      </c>
+      <c r="E41">
+        <v>702</v>
+      </c>
+      <c r="F41">
+        <v>1580</v>
+      </c>
+      <c r="H41">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="2">
+        <v>43502</v>
+      </c>
+      <c r="D42">
+        <v>61</v>
+      </c>
+      <c r="E42">
+        <v>662</v>
+      </c>
+      <c r="F42">
+        <v>427</v>
+      </c>
+      <c r="G42">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="2">
+        <v>43503</v>
+      </c>
+      <c r="C43">
+        <v>860</v>
+      </c>
+      <c r="D43">
+        <v>1116</v>
+      </c>
+      <c r="E43">
+        <v>675</v>
+      </c>
+      <c r="G43">
+        <v>782</v>
+      </c>
+      <c r="H43">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="2">
+        <v>43504</v>
+      </c>
+      <c r="D44">
+        <v>1021</v>
+      </c>
+      <c r="F44">
+        <v>273</v>
+      </c>
+      <c r="G44">
+        <v>103</v>
+      </c>
+      <c r="H44">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
+      <c r="B45" s="2">
+        <v>43505</v>
+      </c>
+      <c r="C45">
+        <v>335</v>
+      </c>
+      <c r="E45">
+        <v>66</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="7"/>
+      <c r="B46" s="2">
+        <v>43506</v>
+      </c>
+      <c r="C46">
+        <v>820</v>
+      </c>
+      <c r="D46">
+        <v>1250</v>
+      </c>
+      <c r="E46">
+        <v>234</v>
+      </c>
+      <c r="F46">
+        <v>70</v>
+      </c>
+      <c r="H46">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="7"/>
+      <c r="B47" s="2">
+        <v>43507</v>
+      </c>
+      <c r="E47">
+        <v>811</v>
+      </c>
+      <c r="F47">
+        <v>795</v>
+      </c>
+      <c r="G47">
+        <v>243</v>
+      </c>
+      <c r="H47">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="7"/>
+      <c r="B48" s="2">
+        <v>43508</v>
+      </c>
+      <c r="C48">
+        <v>288</v>
+      </c>
+      <c r="E48">
+        <v>915</v>
+      </c>
+      <c r="H48">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="7"/>
+      <c r="B49" s="2">
+        <v>43509</v>
+      </c>
+      <c r="D49">
+        <v>516</v>
+      </c>
+      <c r="E49">
+        <v>31</v>
+      </c>
+      <c r="H49">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="7"/>
+      <c r="B50" s="2">
+        <v>43510</v>
+      </c>
+      <c r="C50">
+        <v>836</v>
+      </c>
+      <c r="F50">
+        <v>122</v>
+      </c>
+      <c r="H50">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="7"/>
+      <c r="B51" s="2">
+        <v>43511</v>
+      </c>
+      <c r="C51">
+        <v>1282</v>
+      </c>
+      <c r="D51">
+        <v>1832</v>
+      </c>
+      <c r="E51">
+        <v>943</v>
+      </c>
+      <c r="F51">
+        <v>565</v>
+      </c>
+      <c r="G51">
+        <v>588</v>
+      </c>
+      <c r="H51">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="7"/>
+      <c r="B52" s="2">
+        <v>43512</v>
+      </c>
+      <c r="D52">
+        <v>1064</v>
+      </c>
+      <c r="F52">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="7"/>
+      <c r="B53" s="2">
+        <v>43513</v>
+      </c>
+      <c r="C53">
+        <v>300</v>
+      </c>
+      <c r="E53">
+        <v>375</v>
+      </c>
+      <c r="F53">
+        <v>290</v>
+      </c>
+      <c r="G53">
+        <v>746</v>
+      </c>
+      <c r="H53">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="7"/>
+      <c r="B54" s="2">
+        <v>43514</v>
+      </c>
+      <c r="C54">
+        <v>130</v>
+      </c>
+      <c r="D54">
+        <v>649</v>
+      </c>
+      <c r="F54">
+        <v>31</v>
+      </c>
+      <c r="G54">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="7"/>
+      <c r="B55" s="2">
+        <v>43515</v>
+      </c>
+      <c r="C55">
+        <v>734</v>
+      </c>
+      <c r="D55">
+        <v>207</v>
+      </c>
+      <c r="E55">
+        <v>1106</v>
+      </c>
+      <c r="H55">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="7"/>
+      <c r="B56" s="2">
+        <v>43516</v>
+      </c>
+      <c r="E56">
+        <v>173</v>
+      </c>
+      <c r="F56">
+        <v>339</v>
+      </c>
+      <c r="G56">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="7"/>
+      <c r="B57" s="2">
+        <v>43517</v>
+      </c>
+      <c r="C57">
+        <v>298</v>
+      </c>
+      <c r="D57">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>439</v>
+      </c>
+      <c r="H57">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="7"/>
+      <c r="B58" s="2">
+        <v>43518</v>
+      </c>
+      <c r="C58">
+        <v>183</v>
+      </c>
+      <c r="D58">
+        <v>772</v>
+      </c>
+      <c r="E58">
+        <v>32</v>
+      </c>
+      <c r="G58">
+        <v>27</v>
+      </c>
+      <c r="H58">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="7"/>
+      <c r="B59" s="2">
+        <v>43519</v>
+      </c>
+      <c r="C59">
+        <v>840</v>
+      </c>
+      <c r="E59">
+        <v>957</v>
+      </c>
+      <c r="F59">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="7"/>
+      <c r="B60" s="2">
+        <v>43520</v>
+      </c>
+      <c r="C60">
+        <v>423</v>
+      </c>
+      <c r="E60">
+        <v>222</v>
+      </c>
+      <c r="F60">
+        <v>53</v>
+      </c>
+      <c r="G60">
+        <v>873</v>
+      </c>
+      <c r="H60">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="7"/>
+      <c r="B61" s="2">
+        <v>43521</v>
+      </c>
+      <c r="C61">
+        <v>988</v>
+      </c>
+      <c r="D61">
+        <v>307</v>
+      </c>
+      <c r="E61">
+        <v>578</v>
+      </c>
+      <c r="G61">
+        <v>431</v>
+      </c>
+      <c r="H61">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="7"/>
+      <c r="B62" s="2">
+        <v>43522</v>
+      </c>
+      <c r="C62">
+        <v>669</v>
+      </c>
+      <c r="E62">
+        <v>217</v>
+      </c>
+      <c r="F62">
+        <v>628</v>
+      </c>
+      <c r="H62">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="7"/>
+      <c r="B63" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C63">
+        <v>105</v>
+      </c>
+      <c r="D63">
+        <v>944</v>
+      </c>
+      <c r="E63">
+        <v>1575</v>
+      </c>
+      <c r="F63">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="7"/>
+      <c r="B64" s="2">
+        <v>43524</v>
+      </c>
+      <c r="C64">
+        <v>722</v>
+      </c>
+      <c r="D64">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="7"/>
+      <c r="B65" s="2">
+        <v>43525</v>
+      </c>
+      <c r="C65">
+        <v>478</v>
+      </c>
+      <c r="D65">
+        <v>94</v>
+      </c>
+      <c r="E65">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="7"/>
+      <c r="B66" s="2">
+        <v>43526</v>
+      </c>
+      <c r="C66">
+        <v>1175</v>
+      </c>
+      <c r="D66">
+        <v>571</v>
+      </c>
+      <c r="F66">
+        <v>231</v>
+      </c>
+      <c r="G66">
+        <v>1858</v>
+      </c>
+      <c r="H66">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="7"/>
+      <c r="B67" s="2">
+        <v>43527</v>
+      </c>
+      <c r="C67">
+        <v>526</v>
+      </c>
+      <c r="E67">
+        <v>767</v>
+      </c>
+      <c r="G67">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="7"/>
+      <c r="B68" s="2">
+        <v>43528</v>
+      </c>
+      <c r="C68">
+        <v>32</v>
+      </c>
+      <c r="D68">
+        <v>463</v>
+      </c>
+      <c r="E68">
+        <v>1143</v>
+      </c>
+      <c r="F68">
+        <v>216</v>
+      </c>
+      <c r="G68">
+        <v>552</v>
+      </c>
+      <c r="H68">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="7"/>
+      <c r="B69" s="2">
+        <v>43529</v>
+      </c>
+      <c r="D69">
+        <v>404</v>
+      </c>
+      <c r="E69">
+        <v>975</v>
+      </c>
+      <c r="F69">
+        <v>883</v>
+      </c>
+      <c r="G69">
+        <v>929</v>
+      </c>
+      <c r="H69">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="7"/>
+      <c r="B70" s="2">
+        <v>43530</v>
+      </c>
+      <c r="F70">
+        <v>84</v>
+      </c>
+      <c r="H70">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="7"/>
+      <c r="B71" s="2">
+        <v>43531</v>
+      </c>
+      <c r="D71">
+        <v>69</v>
+      </c>
+      <c r="F71">
+        <v>147</v>
+      </c>
+      <c r="G71">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="7"/>
+      <c r="B72" s="2">
+        <v>43532</v>
+      </c>
+      <c r="C72">
+        <v>80</v>
+      </c>
+      <c r="D72">
+        <v>719</v>
+      </c>
+      <c r="E72">
+        <v>93</v>
+      </c>
+      <c r="F72">
+        <v>804</v>
+      </c>
+      <c r="G72">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="7"/>
+      <c r="B73" s="2">
+        <v>43533</v>
+      </c>
+      <c r="C73">
+        <v>873</v>
+      </c>
+      <c r="D73">
+        <v>1292</v>
+      </c>
+      <c r="E73">
+        <v>935</v>
+      </c>
+      <c r="G73">
+        <v>384</v>
+      </c>
+      <c r="H73">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="7"/>
+      <c r="B74" s="2">
+        <v>43534</v>
+      </c>
+      <c r="C74">
+        <v>27</v>
+      </c>
+      <c r="D74">
+        <v>184</v>
+      </c>
+      <c r="E74">
+        <v>181</v>
+      </c>
+      <c r="G74">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="7"/>
+      <c r="B75" s="2">
+        <v>43535</v>
+      </c>
+      <c r="C75">
+        <v>181</v>
+      </c>
+      <c r="D75">
+        <v>398</v>
+      </c>
+      <c r="F75">
+        <v>725</v>
+      </c>
+      <c r="G75">
+        <v>766</v>
+      </c>
+      <c r="H75">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="7"/>
+      <c r="B76" s="2">
+        <v>43536</v>
+      </c>
+      <c r="C76">
+        <v>33</v>
+      </c>
+      <c r="F76">
+        <v>200</v>
+      </c>
+      <c r="G76">
+        <v>299</v>
+      </c>
+      <c r="H76">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="7"/>
+      <c r="B77" s="2">
+        <v>43537</v>
+      </c>
+      <c r="D77">
+        <v>336</v>
+      </c>
+      <c r="E77">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="7"/>
+      <c r="B78" s="2">
+        <v>43538</v>
+      </c>
+      <c r="C78">
+        <v>534</v>
+      </c>
+      <c r="D78">
+        <v>496</v>
+      </c>
+      <c r="E78">
+        <v>447</v>
+      </c>
+      <c r="G78">
+        <v>442</v>
+      </c>
+      <c r="H78">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="7"/>
+      <c r="B79" s="2">
+        <v>43539</v>
+      </c>
+      <c r="C79">
+        <v>241</v>
+      </c>
+      <c r="D79">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="7"/>
+      <c r="B80" s="2">
+        <v>43540</v>
+      </c>
+      <c r="C80">
+        <v>402</v>
+      </c>
+      <c r="E80">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="7"/>
+      <c r="B81" s="2">
+        <v>43541</v>
+      </c>
+      <c r="E81">
+        <v>24</v>
+      </c>
+      <c r="G81">
+        <v>432</v>
+      </c>
+      <c r="H81">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="7"/>
+      <c r="B82" s="2">
+        <v>43542</v>
+      </c>
+      <c r="C82">
+        <v>215</v>
+      </c>
+      <c r="D82">
+        <v>54</v>
+      </c>
+      <c r="G82">
+        <v>300</v>
+      </c>
+      <c r="H82">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="7"/>
+      <c r="B83" s="2">
+        <v>43543</v>
+      </c>
+      <c r="C83">
+        <v>1558</v>
+      </c>
+      <c r="D83">
+        <v>884</v>
+      </c>
+      <c r="E83">
+        <v>175</v>
+      </c>
+      <c r="G83">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="7"/>
+      <c r="B84" s="2">
+        <v>43544</v>
+      </c>
+      <c r="E84">
+        <v>162</v>
+      </c>
+      <c r="G84">
+        <v>524</v>
+      </c>
+      <c r="H84">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="7"/>
+      <c r="B85" s="2">
+        <v>43545</v>
+      </c>
+      <c r="C85">
+        <v>989</v>
+      </c>
+      <c r="E85">
+        <v>361</v>
+      </c>
+      <c r="H85">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="7"/>
+      <c r="B86" s="2">
+        <v>43546</v>
+      </c>
+      <c r="D86">
+        <v>75</v>
+      </c>
+      <c r="E86">
+        <v>297</v>
+      </c>
+      <c r="G86">
+        <v>442</v>
+      </c>
+      <c r="H86">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="7"/>
+      <c r="B87" s="2">
+        <v>43547</v>
+      </c>
+      <c r="C87">
+        <v>771</v>
+      </c>
+      <c r="D87">
+        <v>384</v>
+      </c>
+      <c r="F87">
+        <v>461</v>
+      </c>
+      <c r="G87">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="7"/>
+      <c r="B88" s="2">
+        <v>43548</v>
+      </c>
+      <c r="D88">
+        <v>370</v>
+      </c>
+      <c r="E88">
+        <v>321</v>
+      </c>
+      <c r="F88">
+        <v>435</v>
+      </c>
+      <c r="G88">
+        <v>477</v>
+      </c>
+      <c r="H88">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="7"/>
+      <c r="B89" s="2">
+        <v>43549</v>
+      </c>
+      <c r="E89">
+        <v>481</v>
+      </c>
+      <c r="F89">
+        <v>50</v>
+      </c>
+      <c r="H89">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="7"/>
+      <c r="B90" s="2">
+        <v>43550</v>
+      </c>
+      <c r="C90">
+        <v>144</v>
+      </c>
+      <c r="E90">
+        <v>154</v>
+      </c>
+      <c r="F90">
+        <v>472</v>
+      </c>
+      <c r="G90">
+        <v>116</v>
+      </c>
+      <c r="H90">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="7"/>
+      <c r="B91" s="2">
+        <v>43551</v>
+      </c>
+      <c r="E91">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="7"/>
+      <c r="B92" s="2">
+        <v>43552</v>
+      </c>
+      <c r="C92">
+        <v>150</v>
+      </c>
+      <c r="D92">
+        <v>621</v>
+      </c>
+      <c r="E92">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="7"/>
+      <c r="B93" s="2">
+        <v>43553</v>
+      </c>
+      <c r="F93">
+        <v>749</v>
+      </c>
+      <c r="G93">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="8"/>
+      <c r="B94" s="2">
+        <v>43554</v>
+      </c>
+      <c r="C94">
+        <v>338</v>
+      </c>
+      <c r="D94">
+        <v>86</v>
+      </c>
+      <c r="E94">
+        <v>609</v>
+      </c>
+      <c r="G94">
+        <v>217</v>
+      </c>
+      <c r="H94">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
-        <f t="shared" ref="B8:G8" si="0">SUM(B6:B7)</f>
+      <c r="B95" s="2">
+        <v>43466</v>
+      </c>
+      <c r="E95">
+        <v>177</v>
+      </c>
+      <c r="F95">
+        <v>132</v>
+      </c>
+      <c r="G95">
+        <v>400</v>
+      </c>
+      <c r="H95">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="7"/>
+      <c r="B96" s="2">
+        <v>43467</v>
+      </c>
+      <c r="C96">
+        <v>139</v>
+      </c>
+      <c r="D96">
+        <v>593</v>
+      </c>
+      <c r="E96">
+        <v>262</v>
+      </c>
+      <c r="H96">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="7"/>
+      <c r="B97" s="2">
+        <v>43468</v>
+      </c>
+      <c r="F97">
+        <v>968</v>
+      </c>
+      <c r="H97">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="7"/>
+      <c r="B98" s="2">
+        <v>43469</v>
+      </c>
+      <c r="C98">
+        <v>76</v>
+      </c>
+      <c r="F98">
+        <v>110</v>
+      </c>
+      <c r="H98">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="7"/>
+      <c r="B99" s="2">
+        <v>43470</v>
+      </c>
+      <c r="D99">
+        <v>172</v>
+      </c>
+      <c r="G99">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="7"/>
+      <c r="B100" s="2">
+        <v>43471</v>
+      </c>
+      <c r="E100">
+        <v>940</v>
+      </c>
+      <c r="F100">
+        <v>760</v>
+      </c>
+      <c r="G100">
+        <v>756</v>
+      </c>
+      <c r="H100">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="7"/>
+      <c r="B101" s="2">
+        <v>43472</v>
+      </c>
+      <c r="C101">
+        <v>326</v>
+      </c>
+      <c r="D101">
+        <v>353</v>
+      </c>
+      <c r="E101">
+        <v>86</v>
+      </c>
+      <c r="H101">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="7"/>
+      <c r="B102" s="2">
+        <v>43473</v>
+      </c>
+      <c r="D102">
+        <v>698</v>
+      </c>
+      <c r="E102">
+        <v>77</v>
+      </c>
+      <c r="G102">
+        <v>175</v>
+      </c>
+      <c r="H102">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="7"/>
+      <c r="B103" s="2">
+        <v>43474</v>
+      </c>
+      <c r="C103">
+        <v>708</v>
+      </c>
+      <c r="D103">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="7"/>
+      <c r="B104" s="2">
+        <v>43475</v>
+      </c>
+      <c r="C104">
+        <v>393</v>
+      </c>
+      <c r="E104">
+        <v>477</v>
+      </c>
+      <c r="G104">
+        <v>494</v>
+      </c>
+      <c r="H104">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="7"/>
+      <c r="B105" s="2">
+        <v>43476</v>
+      </c>
+      <c r="D105">
+        <v>94</v>
+      </c>
+      <c r="E105">
+        <v>614</v>
+      </c>
+      <c r="H105">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="7"/>
+      <c r="B106" s="2">
+        <v>43477</v>
+      </c>
+      <c r="C106">
+        <v>1700</v>
+      </c>
+      <c r="G106">
+        <v>1024</v>
+      </c>
+      <c r="H106">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="7"/>
+      <c r="B107" s="2">
+        <v>43478</v>
+      </c>
+      <c r="D107">
+        <v>126</v>
+      </c>
+      <c r="E107">
+        <v>152</v>
+      </c>
+      <c r="G107">
+        <v>255</v>
+      </c>
+      <c r="H107">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="7"/>
+      <c r="B108" s="2">
+        <v>43479</v>
+      </c>
+      <c r="C108">
+        <v>451</v>
+      </c>
+      <c r="D108">
+        <v>588</v>
+      </c>
+      <c r="E108">
+        <v>759</v>
+      </c>
+      <c r="F108">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="7"/>
+      <c r="B109" s="2">
+        <v>43480</v>
+      </c>
+      <c r="C109">
+        <v>984</v>
+      </c>
+      <c r="E109">
+        <v>267</v>
+      </c>
+      <c r="F109">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="7"/>
+      <c r="B110" s="2">
+        <v>43481</v>
+      </c>
+      <c r="D110">
+        <v>219</v>
+      </c>
+      <c r="G110">
+        <v>1671</v>
+      </c>
+      <c r="H110">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="7"/>
+      <c r="B111" s="2">
+        <v>43482</v>
+      </c>
+      <c r="E111">
+        <v>259</v>
+      </c>
+      <c r="G111">
+        <v>136</v>
+      </c>
+      <c r="H111">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="7"/>
+      <c r="B112" s="2">
+        <v>43483</v>
+      </c>
+      <c r="D112">
+        <v>446</v>
+      </c>
+      <c r="E112">
+        <v>166</v>
+      </c>
+      <c r="G112">
+        <v>183</v>
+      </c>
+      <c r="H112">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="7"/>
+      <c r="B113" s="2">
+        <v>43484</v>
+      </c>
+      <c r="C113">
+        <v>371</v>
+      </c>
+      <c r="E113">
+        <v>858</v>
+      </c>
+      <c r="G113">
+        <v>549</v>
+      </c>
+      <c r="H113">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="7"/>
+      <c r="B114" s="2">
+        <v>43485</v>
+      </c>
+      <c r="D114">
+        <v>131</v>
+      </c>
+      <c r="F114">
+        <v>704</v>
+      </c>
+      <c r="G114">
+        <v>230</v>
+      </c>
+      <c r="H114">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="7"/>
+      <c r="B115" s="2">
+        <v>43486</v>
+      </c>
+      <c r="E115">
+        <v>245</v>
+      </c>
+      <c r="F115">
+        <v>391</v>
+      </c>
+      <c r="G115">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="7"/>
+      <c r="B116" s="2">
+        <v>43487</v>
+      </c>
+      <c r="G116">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="7"/>
+      <c r="B117" s="2">
+        <v>43488</v>
+      </c>
+      <c r="C117">
+        <v>87</v>
+      </c>
+      <c r="D117">
+        <v>126</v>
+      </c>
+      <c r="E117">
+        <v>1106</v>
+      </c>
+      <c r="F117">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="7"/>
+      <c r="B118" s="2">
+        <v>43489</v>
+      </c>
+      <c r="C118">
+        <v>1070</v>
+      </c>
+      <c r="D118">
+        <v>1022</v>
+      </c>
+      <c r="G118">
+        <v>655</v>
+      </c>
+      <c r="H118">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="7"/>
+      <c r="B119" s="2">
+        <v>43490</v>
+      </c>
+      <c r="C119">
+        <v>248</v>
+      </c>
+      <c r="D119">
+        <v>94</v>
+      </c>
+      <c r="F119">
+        <v>1554</v>
+      </c>
+      <c r="G119">
+        <v>420</v>
+      </c>
+      <c r="H119">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="7"/>
+      <c r="B120" s="2">
+        <v>43491</v>
+      </c>
+      <c r="C120">
+        <v>1020</v>
+      </c>
+      <c r="D120">
+        <v>22</v>
+      </c>
+      <c r="E120">
+        <v>490</v>
+      </c>
+      <c r="F120">
+        <v>762</v>
+      </c>
+      <c r="G120">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="7"/>
+      <c r="B121" s="2">
+        <v>43492</v>
+      </c>
+      <c r="C121">
+        <v>77</v>
+      </c>
+      <c r="E121">
+        <v>515</v>
+      </c>
+      <c r="F121">
+        <v>893</v>
+      </c>
+      <c r="G121">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="7"/>
+      <c r="B122" s="2">
+        <v>43493</v>
+      </c>
+      <c r="C122">
+        <v>321</v>
+      </c>
+      <c r="E122">
+        <v>85</v>
+      </c>
+      <c r="F122">
+        <v>1831</v>
+      </c>
+      <c r="H122">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="7"/>
+      <c r="B123" s="2">
+        <v>43494</v>
+      </c>
+      <c r="C123">
+        <v>658</v>
+      </c>
+      <c r="D123">
+        <v>1189</v>
+      </c>
+      <c r="F123">
+        <v>42</v>
+      </c>
+      <c r="H123">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="7"/>
+      <c r="B124" s="2">
+        <v>43495</v>
+      </c>
+      <c r="C124">
+        <v>295</v>
+      </c>
+      <c r="G124">
+        <v>24</v>
+      </c>
+      <c r="H124">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="7"/>
+      <c r="B125" s="2">
+        <v>43496</v>
+      </c>
+      <c r="C125">
+        <v>2186</v>
+      </c>
+      <c r="D125">
+        <v>1405</v>
+      </c>
+      <c r="H125">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="7"/>
+      <c r="B126" s="2">
+        <v>43497</v>
+      </c>
+      <c r="H126">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="7"/>
+      <c r="B127" s="2">
+        <v>43498</v>
+      </c>
+      <c r="D127">
+        <v>453</v>
+      </c>
+      <c r="E127">
+        <v>994</v>
+      </c>
+      <c r="G127">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="7"/>
+      <c r="B128" s="2">
+        <v>43499</v>
+      </c>
+      <c r="D128">
+        <v>461</v>
+      </c>
+      <c r="E128">
+        <v>1840</v>
+      </c>
+      <c r="G128">
+        <v>764</v>
+      </c>
+      <c r="H128">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129" s="7"/>
+      <c r="B129" s="2">
+        <v>43500</v>
+      </c>
+      <c r="C129">
+        <v>624</v>
+      </c>
+      <c r="E129">
+        <v>98</v>
+      </c>
+      <c r="G129">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130" s="7"/>
+      <c r="B130" s="2">
+        <v>43501</v>
+      </c>
+      <c r="C130">
+        <v>44</v>
+      </c>
+      <c r="D130">
+        <v>146</v>
+      </c>
+      <c r="E130">
+        <v>92</v>
+      </c>
+      <c r="G130">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131" s="7"/>
+      <c r="B131" s="2">
+        <v>43502</v>
+      </c>
+      <c r="C131">
+        <v>559</v>
+      </c>
+      <c r="D131">
+        <v>407</v>
+      </c>
+      <c r="F131">
+        <v>366</v>
+      </c>
+      <c r="G131">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132" s="7"/>
+      <c r="B132" s="2">
+        <v>43503</v>
+      </c>
+      <c r="C132">
+        <v>1400</v>
+      </c>
+      <c r="D132">
+        <v>181</v>
+      </c>
+      <c r="E132">
+        <v>453</v>
+      </c>
+      <c r="F132">
+        <v>1372</v>
+      </c>
+      <c r="G132">
+        <v>331</v>
+      </c>
+      <c r="H132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" s="7"/>
+      <c r="B133" s="2">
+        <v>43504</v>
+      </c>
+      <c r="D133">
+        <v>1095</v>
+      </c>
+      <c r="G133">
+        <v>329</v>
+      </c>
+      <c r="H133">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" s="7"/>
+      <c r="B134" s="2">
+        <v>43505</v>
+      </c>
+      <c r="D134">
+        <v>653</v>
+      </c>
+      <c r="E134">
+        <v>387</v>
+      </c>
+      <c r="F134">
+        <v>888</v>
+      </c>
+      <c r="G134">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135" s="7"/>
+      <c r="B135" s="2">
+        <v>43506</v>
+      </c>
+      <c r="C135">
+        <v>271</v>
+      </c>
+      <c r="G135">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136" s="7"/>
+      <c r="B136" s="2">
+        <v>43507</v>
+      </c>
+      <c r="D136">
+        <v>652</v>
+      </c>
+      <c r="E136">
+        <v>937</v>
+      </c>
+      <c r="G136">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137" s="7"/>
+      <c r="B137" s="2">
+        <v>43508</v>
+      </c>
+      <c r="D137">
+        <v>852</v>
+      </c>
+      <c r="F137">
+        <v>160</v>
+      </c>
+      <c r="G137">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138" s="7"/>
+      <c r="B138" s="2">
+        <v>43509</v>
+      </c>
+      <c r="C138">
+        <v>216</v>
+      </c>
+      <c r="H138">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139" s="7"/>
+      <c r="B139" s="2">
+        <v>43510</v>
+      </c>
+      <c r="E139">
+        <v>499</v>
+      </c>
+      <c r="F139">
+        <v>414</v>
+      </c>
+      <c r="H139">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140" s="7"/>
+      <c r="B140" s="2">
+        <v>43511</v>
+      </c>
+      <c r="D140">
+        <v>164</v>
+      </c>
+      <c r="E140">
+        <v>164</v>
+      </c>
+      <c r="F140">
+        <v>1029</v>
+      </c>
+      <c r="G140">
+        <v>93</v>
+      </c>
+      <c r="H140">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141" s="7"/>
+      <c r="B141" s="2">
+        <v>43512</v>
+      </c>
+      <c r="C141">
+        <v>63</v>
+      </c>
+      <c r="D141">
+        <v>349</v>
+      </c>
+      <c r="E141">
+        <v>182</v>
+      </c>
+      <c r="H141">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142" s="7"/>
+      <c r="B142" s="2">
+        <v>43513</v>
+      </c>
+      <c r="C142">
+        <v>794</v>
+      </c>
+      <c r="D142">
+        <v>143</v>
+      </c>
+      <c r="E142">
+        <v>784</v>
+      </c>
+      <c r="H142">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="7"/>
+      <c r="B143" s="2">
+        <v>43514</v>
+      </c>
+      <c r="D143">
+        <v>284</v>
+      </c>
+      <c r="F143">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144" s="7"/>
+      <c r="B144" s="2">
+        <v>43515</v>
+      </c>
+      <c r="C144">
+        <v>1261</v>
+      </c>
+      <c r="F144">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145" s="7"/>
+      <c r="B145" s="2">
+        <v>43516</v>
+      </c>
+      <c r="E145">
+        <v>1339</v>
+      </c>
+      <c r="F145">
+        <v>350</v>
+      </c>
+      <c r="G145">
+        <v>79</v>
+      </c>
+      <c r="H145">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146" s="7"/>
+      <c r="B146" s="2">
+        <v>43517</v>
+      </c>
+      <c r="D146">
+        <v>310</v>
+      </c>
+      <c r="F146">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147" s="7"/>
+      <c r="B147" s="2">
+        <v>43518</v>
+      </c>
+      <c r="D147">
+        <v>184</v>
+      </c>
+      <c r="G147">
+        <v>286</v>
+      </c>
+      <c r="H147">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148" s="7"/>
+      <c r="B148" s="2">
+        <v>43519</v>
+      </c>
+      <c r="E148">
+        <v>38</v>
+      </c>
+      <c r="H148">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149" s="7"/>
+      <c r="B149" s="2">
+        <v>43520</v>
+      </c>
+      <c r="C149">
+        <v>260</v>
+      </c>
+      <c r="D149">
+        <v>176</v>
+      </c>
+      <c r="G149">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150" s="7"/>
+      <c r="B150" s="2">
+        <v>43521</v>
+      </c>
+      <c r="C150">
+        <v>493</v>
+      </c>
+      <c r="D150">
+        <v>494</v>
+      </c>
+      <c r="E150">
+        <v>51</v>
+      </c>
+      <c r="F150">
+        <v>826</v>
+      </c>
+      <c r="H150">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151" s="7"/>
+      <c r="B151" s="2">
+        <v>43522</v>
+      </c>
+      <c r="D151">
+        <v>268</v>
+      </c>
+      <c r="E151">
+        <v>168</v>
+      </c>
+      <c r="H151">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" s="7"/>
+      <c r="B152" s="2">
+        <v>43523</v>
+      </c>
+      <c r="C152">
+        <v>681</v>
+      </c>
+      <c r="D152">
+        <v>210</v>
+      </c>
+      <c r="E152">
+        <v>198</v>
+      </c>
+      <c r="F152">
+        <v>536</v>
+      </c>
+      <c r="H152">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" s="7"/>
+      <c r="B153" s="2">
+        <v>43524</v>
+      </c>
+      <c r="C153">
+        <v>63</v>
+      </c>
+      <c r="D153">
+        <v>196</v>
+      </c>
+      <c r="E153">
+        <v>508</v>
+      </c>
+      <c r="F153">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154" s="7"/>
+      <c r="B154" s="2">
+        <v>43525</v>
+      </c>
+      <c r="C154">
+        <v>87</v>
+      </c>
+      <c r="D154">
+        <v>1340</v>
+      </c>
+      <c r="E154">
+        <v>56</v>
+      </c>
+      <c r="F154">
+        <v>193</v>
+      </c>
+      <c r="G154">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155" s="7"/>
+      <c r="B155" s="2">
+        <v>43526</v>
+      </c>
+      <c r="E155">
+        <v>279</v>
+      </c>
+      <c r="F155">
+        <v>629</v>
+      </c>
+      <c r="G155">
+        <v>255</v>
+      </c>
+      <c r="H155">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" s="7"/>
+      <c r="B156" s="2">
+        <v>43527</v>
+      </c>
+      <c r="C156">
+        <v>1036</v>
+      </c>
+      <c r="D156">
+        <v>49</v>
+      </c>
+      <c r="E156">
+        <v>186</v>
+      </c>
+      <c r="F156">
+        <v>532</v>
+      </c>
+      <c r="G156">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" s="7"/>
+      <c r="B157" s="2">
+        <v>43528</v>
+      </c>
+      <c r="C157">
+        <v>182</v>
+      </c>
+      <c r="F157">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" s="7"/>
+      <c r="B158" s="2">
+        <v>43529</v>
+      </c>
+      <c r="C158">
+        <v>247</v>
+      </c>
+      <c r="D158">
+        <v>115</v>
+      </c>
+      <c r="E158">
+        <v>57</v>
+      </c>
+      <c r="F158">
+        <v>757</v>
+      </c>
+      <c r="G158">
+        <v>521</v>
+      </c>
+      <c r="H158">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" s="7"/>
+      <c r="B159" s="2">
+        <v>43530</v>
+      </c>
+      <c r="C159">
+        <v>352</v>
+      </c>
+      <c r="D159">
+        <v>105</v>
+      </c>
+      <c r="E159">
+        <v>456</v>
+      </c>
+      <c r="G159">
+        <v>642</v>
+      </c>
+      <c r="H159">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160" s="7"/>
+      <c r="B160" s="2">
+        <v>43531</v>
+      </c>
+      <c r="C160">
+        <v>493</v>
+      </c>
+      <c r="E160">
+        <v>210</v>
+      </c>
+      <c r="G160">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161" s="7"/>
+      <c r="B161" s="2">
+        <v>43532</v>
+      </c>
+      <c r="C161">
+        <v>102</v>
+      </c>
+      <c r="E161">
+        <v>162</v>
+      </c>
+      <c r="G161">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162" s="7"/>
+      <c r="B162" s="2">
+        <v>43533</v>
+      </c>
+      <c r="C162">
+        <v>107</v>
+      </c>
+      <c r="D162">
+        <v>719</v>
+      </c>
+      <c r="E162">
+        <v>524</v>
+      </c>
+      <c r="F162">
+        <v>763</v>
+      </c>
+      <c r="H162">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163" s="7"/>
+      <c r="B163" s="2">
+        <v>43534</v>
+      </c>
+      <c r="C163">
+        <v>122</v>
+      </c>
+      <c r="D163">
+        <v>144</v>
+      </c>
+      <c r="E163">
+        <v>208</v>
+      </c>
+      <c r="F163">
+        <v>860</v>
+      </c>
+      <c r="H163">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A164" s="7"/>
+      <c r="B164" s="2">
+        <v>43535</v>
+      </c>
+      <c r="E164">
+        <v>295</v>
+      </c>
+      <c r="F164">
+        <v>126</v>
+      </c>
+      <c r="H164">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165" s="7"/>
+      <c r="B165" s="2">
+        <v>43536</v>
+      </c>
+      <c r="C165">
+        <v>193</v>
+      </c>
+      <c r="E165">
+        <v>800</v>
+      </c>
+      <c r="F165">
+        <v>823</v>
+      </c>
+      <c r="G165">
+        <v>194</v>
+      </c>
+      <c r="H165">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166" s="7"/>
+      <c r="B166" s="2">
+        <v>43537</v>
+      </c>
+      <c r="D166">
+        <v>59</v>
+      </c>
+      <c r="E166">
+        <v>337</v>
+      </c>
+      <c r="F166">
+        <v>357</v>
+      </c>
+      <c r="G166">
+        <v>537</v>
+      </c>
+      <c r="H166">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167" s="7"/>
+      <c r="B167" s="2">
+        <v>43538</v>
+      </c>
+      <c r="C167">
+        <v>1602</v>
+      </c>
+      <c r="D167">
+        <v>626</v>
+      </c>
+      <c r="E167">
+        <v>864</v>
+      </c>
+      <c r="F167">
+        <v>867</v>
+      </c>
+      <c r="G167">
+        <v>149</v>
+      </c>
+      <c r="H167">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168" s="7"/>
+      <c r="B168" s="2">
+        <v>43539</v>
+      </c>
+      <c r="D168">
+        <v>57</v>
+      </c>
+      <c r="F168">
+        <v>626</v>
+      </c>
+      <c r="G168">
+        <v>746</v>
+      </c>
+      <c r="H168">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169" s="7"/>
+      <c r="B169" s="2">
+        <v>43540</v>
+      </c>
+      <c r="D169">
+        <v>408</v>
+      </c>
+      <c r="F169">
+        <v>32</v>
+      </c>
+      <c r="G169">
+        <v>100</v>
+      </c>
+      <c r="H169">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170" s="7"/>
+      <c r="B170" s="2">
+        <v>43541</v>
+      </c>
+      <c r="D170">
+        <v>369</v>
+      </c>
+      <c r="H170">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171" s="7"/>
+      <c r="B171" s="2">
+        <v>43542</v>
+      </c>
+      <c r="D171">
+        <v>97</v>
+      </c>
+      <c r="G171">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172" s="7"/>
+      <c r="B172" s="2">
+        <v>43543</v>
+      </c>
+      <c r="C172">
+        <v>172</v>
+      </c>
+      <c r="D172">
+        <v>936</v>
+      </c>
+      <c r="F172">
+        <v>501</v>
+      </c>
+      <c r="G172">
+        <v>261</v>
+      </c>
+      <c r="H172">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173" s="7"/>
+      <c r="B173" s="2">
+        <v>43544</v>
+      </c>
+      <c r="C173">
+        <v>469</v>
+      </c>
+      <c r="D173">
+        <v>989</v>
+      </c>
+      <c r="E173">
+        <v>343</v>
+      </c>
+      <c r="G173">
+        <v>1373</v>
+      </c>
+      <c r="H173">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174" s="7"/>
+      <c r="B174" s="2">
+        <v>43545</v>
+      </c>
+      <c r="G174">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175" s="7"/>
+      <c r="B175" s="2">
+        <v>43546</v>
+      </c>
+      <c r="C175">
+        <v>100</v>
+      </c>
+      <c r="G175">
+        <v>447</v>
+      </c>
+      <c r="H175">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176" s="7"/>
+      <c r="B176" s="2">
+        <v>43547</v>
+      </c>
+      <c r="D176">
+        <v>651</v>
+      </c>
+      <c r="E176">
+        <v>632</v>
+      </c>
+      <c r="G176">
+        <v>409</v>
+      </c>
+      <c r="H176">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177" s="7"/>
+      <c r="B177" s="2">
+        <v>43548</v>
+      </c>
+      <c r="C177">
+        <v>682</v>
+      </c>
+      <c r="G177">
+        <v>985</v>
+      </c>
+      <c r="H177">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178" s="7"/>
+      <c r="B178" s="2">
+        <v>43549</v>
+      </c>
+      <c r="C178">
+        <v>1144</v>
+      </c>
+      <c r="D178">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" s="7"/>
+      <c r="B179" s="2">
+        <v>43550</v>
+      </c>
+      <c r="C179">
+        <v>708</v>
+      </c>
+      <c r="D179">
+        <v>236</v>
+      </c>
+      <c r="F179">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180" s="7"/>
+      <c r="B180" s="2">
+        <v>43551</v>
+      </c>
+      <c r="C180">
+        <v>117</v>
+      </c>
+      <c r="D180">
+        <v>943</v>
+      </c>
+      <c r="E180">
+        <v>465</v>
+      </c>
+      <c r="F180">
+        <v>273</v>
+      </c>
+      <c r="G180">
+        <v>93</v>
+      </c>
+      <c r="H180">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181" s="7"/>
+      <c r="B181" s="2">
+        <v>43552</v>
+      </c>
+      <c r="C181">
+        <v>191</v>
+      </c>
+      <c r="E181">
+        <v>637</v>
+      </c>
+      <c r="F181">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182" s="7"/>
+      <c r="B182" s="2">
+        <v>43553</v>
+      </c>
+      <c r="C182">
+        <v>986</v>
+      </c>
+      <c r="F182">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183" s="8"/>
+      <c r="B183" s="2">
+        <v>43554</v>
+      </c>
+      <c r="C183">
+        <v>305</v>
+      </c>
+      <c r="E183">
+        <v>196</v>
+      </c>
+      <c r="F183">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>12</v>
+      </c>
+      <c r="B184" s="5">
+        <f t="shared" ref="B184:H184" si="0">SUM(B6:B183)</f>
+        <v>7744780</v>
+      </c>
+      <c r="C184" s="5">
+        <f t="shared" si="0"/>
         <v>54338</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D184" s="5">
         <f t="shared" si="0"/>
-        <v>54305</v>
-      </c>
-      <c r="D8" s="5">
+        <v>54309</v>
+      </c>
+      <c r="E184" s="5">
         <f t="shared" si="0"/>
-        <v>56145</v>
-      </c>
-      <c r="E8" s="5">
+        <v>56147</v>
+      </c>
+      <c r="F184" s="5">
         <f t="shared" si="0"/>
-        <v>49194</v>
-      </c>
-      <c r="F8" s="5">
+        <v>49191</v>
+      </c>
+      <c r="G184" s="5">
         <f t="shared" si="0"/>
-        <v>53862</v>
-      </c>
-      <c r="G8" s="5">
+        <v>53863</v>
+      </c>
+      <c r="H184" s="5">
         <f t="shared" si="0"/>
-        <v>55123</v>
+        <v>55126</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:A94"/>
+    <mergeCell ref="A95:A183"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
